--- a/rebuild_document.xlsx
+++ b/rebuild_document.xlsx
@@ -2793,13 +2793,13 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>52296</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:colOff>141941</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
+      <xdr:rowOff>149411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2814,8 +2814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8643472" y="224118"/>
-          <a:ext cx="3399116" cy="1987176"/>
+          <a:off x="8643472" y="224117"/>
+          <a:ext cx="3451410" cy="2076823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,10 +2983,100 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    </a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    Streaming</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>姚希明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3001,9 +3091,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>code review+full test.......</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3566,6 +3653,27 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，具有自明性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5250,7 +5358,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10.weight</a:t>
+            <a:t>10.widget</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6288,16 +6396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>150905</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>61255</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6312,7 +6420,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1458258" y="16377020"/>
+          <a:off x="1129552" y="15846608"/>
           <a:ext cx="6146802" cy="3076392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6366,6 +6474,79 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>官网：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ButterKnife</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://jakewharton.github.io/butterknife/</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -6581,16 +6762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>164353</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171824</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>170332</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>13451</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>155391</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>20921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6605,7 +6786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1494118" y="19707412"/>
+          <a:off x="1105648" y="19177000"/>
           <a:ext cx="6146802" cy="3076392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6649,6 +6830,56 @@
             <a:t>配置和使用方法</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>官网</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RxJava</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://github.com/ReactiveX/RxJava</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
@@ -7058,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5515559-5996-479C-B56D-5D96EBA12B21}">
   <dimension ref="B2:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BN42" sqref="BN42"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
